--- a/current_limits.xlsx
+++ b/current_limits.xlsx
@@ -20,21 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
-  <si>
-    <t xml:space="preserve">same randomseed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t xml:space="preserve">ssWW SMP17-004</t>
   </si>
   <si>
-    <t xml:space="preserve">WPWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WPWM</t>
+    <t xml:space="preserve">W+W+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W+W-</t>
   </si>
   <si>
     <r>
@@ -66,6 +60,39 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve"> &lt; 1.5 TeV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">M</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">jj-AK4</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> &lt; 2 TeV</t>
     </r>
   </si>
@@ -96,22 +123,22 @@
     <t xml:space="preserve">(-7.7,7.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">(-42.77, 42.77)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-43.66, 43.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-56.20, 56.20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-55.36, 55.36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-171.68, 171.68)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-141.14, 141.14)</t>
+    <t xml:space="preserve">(-55.92, 55.92)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-46.77, 46.77)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-55.38, 55.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-179.46, 179.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-119.32, 119.32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-140.93, 140.93)</t>
   </si>
   <si>
     <r>
@@ -140,22 +167,22 @@
     <t xml:space="preserve">(-21.6,21.8)</t>
   </si>
   <si>
-    <t xml:space="preserve">(-152.87, 152.87)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-167.18, 167.18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-206.40, 206.40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-193.75, 193.75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-69.58, 69.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-60.08, 60.08)</t>
+    <t xml:space="preserve">(-205.74, 205.74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-166.72, 166.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-193.81, 193.81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-69.99, 69.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-51.67, 51.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-59.99, 59.99)</t>
   </si>
   <si>
     <r>
@@ -184,19 +211,19 @@
     <t xml:space="preserve">(-6.0,5.9)</t>
   </si>
   <si>
-    <t xml:space="preserve">(-16.01, 16.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-16.06, 16.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-17.82, 17.82)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-18.29, 18.29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-1.23, 1.23)</t>
+    <t xml:space="preserve">(-17.95, 17.95)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-15.77, 15.77)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-18.30, 18.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-1.24, 1.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-1.14, 1.14)</t>
   </si>
   <si>
     <t xml:space="preserve">(-1.40, 1.40)</t>
@@ -228,22 +255,22 @@
     <t xml:space="preserve">(8.7,9.1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(-16.94, 16.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-15.91, 15.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-21.47, 21.47)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-22.82, 22.82)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-5.09, 5.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-5.58, 5.58)</t>
+    <t xml:space="preserve">(-21.51, 21.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-19.75, 19.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-22.83, 22.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-5.14, 5.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-4.31, 4.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-5.57, 5.57)</t>
   </si>
   <si>
     <r>
@@ -272,198 +299,252 @@
     <t xml:space="preserve">(-11.9,11.8)</t>
   </si>
   <si>
-    <t xml:space="preserve">(-32.02, 32.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-32.13, 32.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-35.65, 35.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-36.58, 36.58)</t>
+    <t xml:space="preserve">(-35.90, 35.90)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-31.53, 31.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-36.59, 36.59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-2.48, 2.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-2.28, 2.28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-2.79, 2.79)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">F</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">M7</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(-13.3,12.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-32.18, 32.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-29.00, 29.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-33.12, 33.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-10.02, 10.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-8.59, 8.59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-10.91, 10.91)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">F</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.62,0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.83, 0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.74, 0.74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.88, 0.88)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.21, 0.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.18, 0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.23, 0.23)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">F</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.28,0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.31, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.29, 0.29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.36, 0.36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.25, 0.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.37, 0.37)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">F</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.89,1.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.95, 0.95)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-1.09, 1.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.59, 0.59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.55, 0.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.65, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W-W-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-207.24, 207.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-127.50, 127.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-157.33, 157.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-74.65, 74.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-59.61, 59.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-72.46, 72.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-108.94, 108.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-85.97, 85.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-108.13, 108.13)</t>
   </si>
   <si>
     <t xml:space="preserve">(-2.46, 2.46)</t>
   </si>
   <si>
-    <t xml:space="preserve">(-2.80, 2.80)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">F</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">M7</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(-13.3,12.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-23.02, 23.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-21.48, 21.48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-32.12, 32.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-33.11, 33.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-9.86, 9.86)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-10.93, 10.93)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">F</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">T0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.62,0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.72, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.68, 0.68)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.83, 0.83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.88, 0.88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.21, 0.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.23, 0.23)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">F</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">T1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.28,0.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.19, 0.19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.14, 0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.31, 0.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.36, 0.36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.29, 0.29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.37, 0.37)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">F</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">T2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.89,1.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.90, 0.90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.76, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.94, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-1.09, 1.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.59, 0.59)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-0.66, 0.66)</t>
+    <t xml:space="preserve">(-2.18, 2.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-2.55, 2.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.91, 0.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-0.84, 0.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-1.05, 1.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-2.82, 2.82)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-2.60, 2.60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-3.16, 3.16)</t>
   </si>
 </sst>
 </file>
@@ -533,7 +614,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -557,13 +638,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right/>
       <top/>
       <bottom style="thin"/>
@@ -612,17 +686,24 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -640,8 +721,22 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -672,7 +767,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -697,8 +792,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -709,7 +804,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -725,7 +820,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -750,6 +845,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -774,308 +881,532 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="11" min="3" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="H4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="16" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="16" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="16" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="16" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="16" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="16" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="H11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="16" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="H12" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="D13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="G13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="H13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="19" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="D17" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E17" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
